--- a/biology/Histoire de la zoologie et de la botanique/Merr/Merr..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Merr/Merr..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elmer Drew Merrill est un botaniste américain, né le 15 octobre 1876 à East Auburn, Maine et mort le 25 février 1956 à Forest Hills, Massachusetts.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son Bachelor of Sciences à l’université du Maine. De 1899 à 1902, il est assistant au ministère de l’agriculture américain comme spécialiste des herbacées. Il étudie, de 1900 à 1901, la médecine à l’université George Washington.
 Merrill obtient son Master of Sciences en 1904. Il travaille jusqu’en 1923 pour diverses agences et services gouvernementaux américains aux Philippines et dirige notamment le Bureau de la science de 1919 à 1923. Merrill y réalise un vaste travail d’inventaire de la flore de l’archipel et visite la plupart des îles. Il fait paraître en 1912, A Flora of Manila puis, entre 1922 et 1926, les quatre volumes d’An Enumeration of Philippine Flowering Plants. En 1923, il est élu à la National Academy of Sciences. De 1923 à 1929, il est doyen de la faculté d’agriculture et le directeur de la station expérimentale de l’université de Berkeley. Il contribue à entièrement réorganiser l’enseignement, modernise l’équipement, augmente de façon importante le budget et stimule la recherche fondamentale. En 1925, il reçoit un Doctorat of Sciences honoraire de l’université du Maine, il recevra deux autres titres honoris causa par l’université de Californie et par Yale. Malgré ses responsabilités administratives, il continue à faire de la recherche, à enrichir l’herbier de centaines de milliers de spécimens et à faire paraître des publications, une activité qui le fait surnommer la petite dynamo.
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Biographie de l’Harvard University Library
 (en) Biographie de Charles H. Smith</t>
